--- a/Stats2.xlsx
+++ b/Stats2.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>Gaussian Elimination</t>
   </si>
@@ -69,12 +70,6 @@
     <t>11-014-000</t>
   </si>
   <si>
-    <t>ns=48</t>
-  </si>
-  <si>
-    <t>ns=43</t>
-  </si>
-  <si>
     <t>Block Lanzcos</t>
   </si>
   <si>
@@ -109,6 +104,27 @@
   </si>
   <si>
     <t>LU Decomposition</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>No solutions</t>
+  </si>
+  <si>
+    <t>ns=43/100</t>
+  </si>
+  <si>
+    <t>ns=48/100</t>
+  </si>
+  <si>
+    <t>43/100</t>
+  </si>
+  <si>
+    <t>3/100</t>
+  </si>
+  <si>
+    <t>44/100</t>
   </si>
 </sst>
 </file>
@@ -315,24 +331,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116668672"/>
-        <c:axId val="116695040"/>
+        <c:axId val="104602240"/>
+        <c:axId val="104628608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116668672"/>
+        <c:axId val="104602240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116695040"/>
+        <c:crossAx val="104628608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116695040"/>
+        <c:axId val="104628608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,19 +356,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116668672"/>
+        <c:crossAx val="104602240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -678,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +780,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -828,7 +845,185 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4004.57</v>
+      </c>
+      <c r="C13">
+        <v>4931.55</v>
+      </c>
+      <c r="D13">
+        <v>5013.7299999999996</v>
+      </c>
+      <c r="E13">
+        <v>5017.6899999999996</v>
+      </c>
+      <c r="G13">
+        <v>1459620</v>
+      </c>
+      <c r="H13">
+        <v>1865060</v>
+      </c>
+      <c r="I13">
+        <v>1875480</v>
+      </c>
+      <c r="J13">
+        <v>1959400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>450</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
         <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3920.67</v>
+      </c>
+      <c r="C19">
+        <v>5092.9399999999996</v>
+      </c>
+      <c r="D19">
+        <v>5169.26</v>
+      </c>
+      <c r="E19">
+        <v>5009.54</v>
+      </c>
+      <c r="G19">
+        <v>1527610</v>
+      </c>
+      <c r="H19">
+        <v>1950330</v>
+      </c>
+      <c r="I19">
+        <v>1910280</v>
+      </c>
+      <c r="J19">
+        <v>1925710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>444</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +1036,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -856,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -895,7 +1090,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>18192.3</v>
@@ -924,7 +1119,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>3740.22</v>
@@ -953,7 +1148,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <f>B4+B5</f>
@@ -964,7 +1159,7 @@
         <v>54395.1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>D4+D5</f>
         <v>94607.9</v>
       </c>
       <c r="E6">
@@ -990,7 +1185,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>3.35</v>
@@ -1058,7 +1253,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>18015.2</v>
@@ -1087,7 +1282,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>3370.94</v>
@@ -1116,7 +1311,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <f>B12+B13</f>
@@ -1153,7 +1348,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>3.01</v>
@@ -1182,15 +1377,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1347,7 +1542,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,7 +1567,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1411,7 +1606,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>10332</v>
@@ -1440,7 +1635,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>309.27</v>
@@ -1469,34 +1664,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <f>B4+B5</f>
+        <f t="shared" ref="B6:C6" si="0">B4+B5</f>
         <v>10641.27</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:I6" si="0">C4+C5</f>
+        <f t="shared" si="0"/>
         <v>11319.27</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>D4+D5</f>
         <v>11270.13</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:I6" si="1">E4+E5</f>
         <v>11619.039999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10352011.6</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10530005.4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10393608.4</v>
       </c>
       <c r="J6">
@@ -1545,7 +1740,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>15554</v>
@@ -1574,7 +1769,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>564.96</v>
@@ -1603,42 +1798,280 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <f>B12+B13</f>
         <v>16118.96</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:J14" si="1">C12+C13</f>
+        <f t="shared" ref="C14:J14" si="2">C12+C13</f>
         <v>14845.56</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15564.140000000001</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15359.77</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16280570.300000001</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10570607.9</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10409808</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10413803.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>3361.91</v>
+      </c>
+      <c r="C18">
+        <v>3441.67</v>
+      </c>
+      <c r="D18">
+        <v>3555.02</v>
+      </c>
+      <c r="E18">
+        <v>3496.52</v>
+      </c>
+      <c r="G18">
+        <v>1806880</v>
+      </c>
+      <c r="H18">
+        <v>1818070</v>
+      </c>
+      <c r="I18">
+        <v>1993070</v>
+      </c>
+      <c r="J18">
+        <v>1961640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>259.37900000000002</v>
+      </c>
+      <c r="C19">
+        <v>274.78800000000001</v>
+      </c>
+      <c r="D19">
+        <v>271.37</v>
+      </c>
+      <c r="E19">
+        <v>295.303</v>
+      </c>
+      <c r="G19">
+        <v>29235.4</v>
+      </c>
+      <c r="H19">
+        <v>31750.400000000001</v>
+      </c>
+      <c r="I19">
+        <v>32117.7</v>
+      </c>
+      <c r="J19">
+        <v>32301.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="3">B18+B19</f>
+        <v>3621.2889999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="4">C18+C19</f>
+        <v>3716.4580000000001</v>
+      </c>
+      <c r="D20">
+        <f>D18+D19</f>
+        <v>3826.39</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:J20" si="5">E18+E19</f>
+        <v>3791.8229999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:J20" si="6">G18+G19</f>
+        <v>1836115.4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>1849820.4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>2025187.7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>1993941.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>3704.98</v>
+      </c>
+      <c r="C23">
+        <v>3522.47</v>
+      </c>
+      <c r="D23">
+        <v>3725.8</v>
+      </c>
+      <c r="E23">
+        <v>3753.35</v>
+      </c>
+      <c r="G23">
+        <v>1971430</v>
+      </c>
+      <c r="H23">
+        <v>2174760</v>
+      </c>
+      <c r="I23">
+        <v>1900010</v>
+      </c>
+      <c r="J23">
+        <v>1846520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>246.91</v>
+      </c>
+      <c r="C24">
+        <v>284.24</v>
+      </c>
+      <c r="D24">
+        <v>293.23399999999998</v>
+      </c>
+      <c r="E24">
+        <v>299.35500000000002</v>
+      </c>
+      <c r="G24">
+        <v>29358.799999999999</v>
+      </c>
+      <c r="H24">
+        <v>31938</v>
+      </c>
+      <c r="I24">
+        <v>31828.799999999999</v>
+      </c>
+      <c r="J24">
+        <v>31970.400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <f>B23+B24</f>
+        <v>3951.89</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:J25" si="7">C23+C24</f>
+        <v>3806.71</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>4019.0340000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>4052.7049999999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:J25" si="8">G23+G24</f>
+        <v>2000788.8</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>2206698</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>1931838.8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>1878490.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>